--- a/population.xlsx
+++ b/population.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="中国70年人口数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="中国70年人口数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>年末总人口(万人)</t>
+  </si>
+  <si>
+    <t>男性人口(万人)</t>
+  </si>
+  <si>
+    <t>女性人口(万人)</t>
+  </si>
+  <si>
+    <t>城镇人口(万人)</t>
+  </si>
+  <si>
+    <t>乡村人口(万人)</t>
+  </si>
+  <si>
+    <t>人口出生率(‰)</t>
+  </si>
+  <si>
+    <t>人口死亡率(‰)</t>
+  </si>
+  <si>
+    <t>人口自然增长率(‰)</t>
+  </si>
+  <si>
+    <t>0-14岁人口(万人)</t>
+  </si>
+  <si>
+    <t>15-64岁人口(万人)</t>
+  </si>
+  <si>
+    <t>65岁及以上人口(万人)</t>
+  </si>
+  <si>
+    <t>总抚养比(%)</t>
+  </si>
+  <si>
+    <t>少儿抚养比(%)</t>
+  </si>
+  <si>
+    <t>老年抚养比(%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,3652 +415,3614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>年份</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>年末总人口(万人)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>男性人口(万人)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>女性人口(万人)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>城镇人口(万人)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>乡村人口(万人)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>人口出生率(‰)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>人口死亡率(‰)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>人口自然增长率(‰)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>年末总人口(万人)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>0-14岁人口(万人)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>15-64岁人口(万人)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>65岁及以上人口(万人)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>总抚养比(%)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>少儿抚养比(%)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>老年抚养比(%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>1949</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>54167</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28145</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26022</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5765</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>48402</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>36</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>54167</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>1950</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>55196</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>28669</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>26527</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>6169</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>49027</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>37</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>19</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>55196</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>1951</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>56300</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>29231</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>27069</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>6632</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>49668</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>37.8</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>17.8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>56300</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>1952</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>57482</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>29833</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>27649</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>7163</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>50319</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>37</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>57482</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>1953</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>58796</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>30468</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>28328</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7826</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>50970</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>37</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>23</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>58796</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>1954</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>60266.4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>31242</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>29024</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>8249</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>52017</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>37.97</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>13.18</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>24.79</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>60266.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>1955</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>61465</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>31809</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>29656</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>8285</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>53180</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>32.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>12.28</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>20.32</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>61465</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>1956</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>62828.3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>32536</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>30292</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>9185</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>53643</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>31.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>11.4</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>20.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>62828.3</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>1957</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>64653.3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>33469</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>31184</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>9949</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>54704</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>34.03</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>10.8</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>23.23</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>64653.3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>1958</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>65994.3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>34195</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>31799</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>10721</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>55273</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>29.22</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>11.98</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>17.24</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>65994.3</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>1959</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>67206.89999999999</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>34890</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>32317</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>12371</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>54836</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>24.78</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>14.59</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>10.19</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>67206.89999999999</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>1960</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>66207</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>34283</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>31924</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>13073</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>53134</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>20.86</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>25.43</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-4.57</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>66207</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>1961</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>65859.10000000001</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>33880</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>31979</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>12707</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>53152</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>18.13</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>14.33</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>3.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>65859.10000000001</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>1962</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>67295.5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>34517</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>32778</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>11659</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>55636</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>37.22</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>10.08</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>27.14</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>67295.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>1963</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>69172</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>35533</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>33639</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>11646</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>57526</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>43.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>10.1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>33.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>69172</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>1964</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>70499.10000000001</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>36142</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>34357</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>12950</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>57549</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>39.34</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>11.56</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>27.78</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>70499.10000000001</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>1965</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>72538</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>37128</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>35410</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>13045</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>59493</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>38</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>9.5</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>28.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>72538</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>1966</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>74542</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>38189</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>36353</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>13313</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>61229</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>35.21</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>8.869999999999999</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>26.34</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>74542</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>1967</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>76368.2</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>39115</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>37253</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>13548</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>62820</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>34.12</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>8.470000000000001</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>25.65</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>76368.2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>1968</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>78534.2</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>40226</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>38308</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>13838</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>64696</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>35.75</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>8.25</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>27.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>78534.2</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>1969</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>80671.2</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>41289</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>39382</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>14117</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>66554</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>34.25</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>8.06</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>26.19</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>80671.2</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>1970</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>82992</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>42686</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>40306</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>14424</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>68568</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>33.59</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>7.64</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>25.95</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>82992</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>1971</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>85229</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>43819</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>41410</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>14711</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>70518</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>30.74</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>7.34</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>23.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>85229</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>1972</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>87177</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>44813</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>42364</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>14935</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>72242</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>29.92</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>7.65</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>22.27</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>87177</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>1973</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>89211</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>45876</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>43335</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>15345</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>73866</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>28.07</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>7.08</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>20.99</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>89211</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>1974</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>90859</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>46727</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>44132</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>15595</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>75264</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>24.95</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>7.38</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>17.57</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>90859</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>1975</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>92420</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>47564</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>44856</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>16030</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>76390</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>23.13</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>7.36</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>15.77</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>92420</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>1976</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>93717</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>48257</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>45460</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>16341</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>77376</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>20.01</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>7.29</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>12.72</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>93717</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>1977</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>94974</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>48908</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>46066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>16669</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>78305</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>19.03</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>6.91</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>12.12</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>94974</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>1978</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>96259</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>49567</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>46692</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>17245</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>79014</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>18.25</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>6.25</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>12</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>96259</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>1979</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>97542</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>50192</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>47350</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>18495</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>79047</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>17.82</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>6.21</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>11.61</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>97542</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>1980</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>98705</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>50785</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>47920</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>19140</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>79565</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>18.21</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>6.34</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>11.87</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>98705</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>1981</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>100072</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>51519</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>48553</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>20171</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>79901</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>20.91</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>6.36</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>14.55</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>100072</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>1982</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>101654</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>52352</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>49302</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>21480</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>80174</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>22.28</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>6.6</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>15.68</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>101654</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>34145.5786</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>62517.21</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>4991.2114</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>62.60162602</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>54.61788618</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>7.983739837</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>1983</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>103008</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>53152</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>49856</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>22274</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>80734</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>20.19</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>6.9</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>13.29</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>103008</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>1984</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>104357</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>53848</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>50509</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>24017</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>80340</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>19.9</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>6.82</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>13.08</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>104357</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>1985</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>105851</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>54725</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>51126</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>25094</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>80757</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>21.04</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>6.78</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>14.26</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>105851</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>1986</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>107507</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>55581</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>51926</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>26366</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>81141</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>22.43</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>6.86</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>15.57</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>107507</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>1987</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>109300</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>56290</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>53010</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>27674</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>81626</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>23.33</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>6.72</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>16.61</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>109300</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>31347.24</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>71984.98</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>5967.78</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>51.8372304889159</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>43.5469177042211</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>8.290312784694811</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>1988</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>111026</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>57201</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>53825</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>28661</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>82365</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>22.37</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>6.64</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>15.73</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>111026</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>1989</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>112704</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>58099</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>54605</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>29540</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>83164</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>21.58</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>6.54</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>15.04</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>112704</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>1990</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>114333</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>58904</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>55429</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>30195</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>84138</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>21.06</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>6.67</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>14.39</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>114333</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>31658.8077</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>76305.84420000001</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>6368.3481</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>49.8351813</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>41.4893617</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>8.345819598</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>1991</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>115823</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>59466</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>56357</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>31203</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>84620</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>19.68</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>6.7</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>12.98</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>115823</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>32094.5533</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>76790.649</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>6937.7977</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>50.8295625942685</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>41.7948717948718</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>9.03469079939668</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>1992</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>117171</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>59811</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>57360</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>32175</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>84996</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>18.24</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>6.64</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>11.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>117171</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>32339.196</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>77614.0704</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>7217.7336</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>50.9661835748792</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>41.6666666666667</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>9.29951690821256</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>1993</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>118517</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>60472</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>58045</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>33173</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>85344</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>18.09</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>6.64</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>11.45</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>118517</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>32177.3655</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>79050.83900000001</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>7288.7955</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>49.9250374812594</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>40.7046476761619</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>9.220389805097451</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>1994</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>119850</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>61246</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>58604</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>34169</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>85681</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>17.7</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>6.49</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>11.21</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>119850</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>32359.5</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>79868.03999999999</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>7622.46</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>50.0600240096038</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>40.516206482593</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>9.543817527010811</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>1995</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>121121</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>61808</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>59313</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>35174</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>85947</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>17.12</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>6.57</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>10.55</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>121121</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>32218</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>81393.31200000001</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>7509.502</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>48.8092952895196</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>39.5831048133291</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>9.22619047619048</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>1996</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>122389</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>62200</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>60189</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>37304</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>85085</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>16.98</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>6.56</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>10.42</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>122389</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>32311</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>82245.408</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>7833</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>48.8095238095238</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>39.2708333333333</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49">
         <v>9.53869047619048</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:16">
+      <c r="A50">
         <v>1997</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>123626</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>63131</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>60495</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>39449</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>84177</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>16.57</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>6.51</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>10.06</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>123626</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>32093.3096</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>83447.55</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>8085.1404</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>48.1481481481482</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>38.4592592592593</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50">
         <v>9.68888888888889</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:16">
+      <c r="A51">
         <v>1998</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>124761</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>63940</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>60821</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>41608</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>83153</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>15.64</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>6.5</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>9.140000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>124761</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>32064</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>84338</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>8359</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>47.928222633101</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>38.0173517280614</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51">
         <v>9.910870905039589</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:16">
+      <c r="A52">
         <v>1999</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>125786</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>64692</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>61094</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>43748</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>82038</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>14.64</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>6.46</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>8.18</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>125786</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>31949.644</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>85157.122</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>8679</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>47.7196070576457</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>37.5184638109306</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52">
         <v>10.2011432467152</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:16">
+      <c r="A53">
         <v>2000</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>126743</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>65437</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>61306</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>45906</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>80837</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>14.03</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>6.45</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>7.58</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>126743</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>29012</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>88910</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>8821</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>42.55966123</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>32.63658171</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53">
         <v>9.923079522</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:16">
+      <c r="A54">
         <v>2001</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>127627</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>65672</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>61955</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>48064</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>79563</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>13.38</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>6.43</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>6.95</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>127627</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>28716.075</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>89849.408</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>9062</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>42.0459921116008</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>31.9602272727273</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>10.0857648388735</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:16">
+      <c r="A55">
         <v>2002</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>128453</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>66115</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>62338</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>50212</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>78241</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>12.86</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>6.41</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>6.45</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>128453</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>28774</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>90302</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>9377</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>42.2482337046798</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>31.864189054506</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55">
         <v>10.3840446501739</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:16">
+      <c r="A56">
         <v>2003</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>129227</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>66556</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>62671</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>52376</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>76851</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>12.41</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>6.4</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>6.01</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>129227</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>28559</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>90976</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>9692</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>42.0451547660922</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56">
         <v>31.3917956384101</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56">
         <v>10.653359127682</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:16">
+      <c r="A57">
         <v>2004</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>129988</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>66976</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>63012</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>54283</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>75705</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>12.29</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>6.42</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>5.87</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>129988</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>27947</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>92184</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>9857</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>41.0092857762735</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>30.3165408313807</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57">
         <v>10.6927449448928</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:16">
+      <c r="A58">
         <v>2005</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>130756</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>67375</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>63381</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>56212</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>74544</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>12.4</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>6.51</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>5.89</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>130756</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>26504</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>94197</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>10055</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>38.8112147945264</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58">
         <v>28.1367771797403</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58">
         <v>10.674437614786</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:16">
+      <c r="A59">
         <v>2006</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>131448</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>67728</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>63720</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>58288</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>73160</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>12.09</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>6.81</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>5.28</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>131448</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>25961</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>95068</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>10419</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>38.2673454790255</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59">
         <v>27.3078217696807</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59">
         <v>10.9595237093449</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:16">
+      <c r="A60">
         <v>2007</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>132129</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>68048</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>64081</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>60633</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>71496</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>12.1</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>6.93</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>5.17</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>132129</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>25660</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>95833</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>10636</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60">
         <v>37.8742186929346</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>26.7757453069402</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60">
         <v>11.0984733859944</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:16">
+      <c r="A61">
         <v>2008</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>132802</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>68357</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>64445</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>62403</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>70399</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>12.14</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>7.06</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>5.08</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>132802</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>25166</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>96680</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>10956</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>37.3624327678941</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61">
         <v>26.0302027306578</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61">
         <v>11.3322300372362</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:16">
+      <c r="A62">
         <v>2009</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>133450</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>68646.67999999999</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>64803.32</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>64512</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>68938</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>11.95</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>7.08</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>4.87</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>133450</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>24659</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>97484</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>11307</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>36.8942595708014</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>25.2954330967133</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62">
         <v>11.5988264740881</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:16">
+      <c r="A63">
         <v>2010</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>134091</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>68748.45570000001</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>65342.5443</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>66978.45450000001</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>67112.54549999999</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>11.9</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>7.11</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>4.79</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>134091</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>22259</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>99938</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>11894</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>34.2</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63">
         <v>22.3</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63">
         <v>11.9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:16">
+      <c r="A64">
         <v>2011</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>134735</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>69068</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>65667</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>69078.6345</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>65656.3655</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>11.93</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>7.14</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>4.79</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>134735</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>22164</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>100283</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>12288</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>34.3547759839654</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>22.101452888326</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>12.2533230956393</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:16">
+      <c r="A65">
         <v>2012</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>135404</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>69395</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>66009</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>71181.88280000001</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>64222.1172</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>12.1</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>7.15</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>4.95</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>135404</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>22287</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>100403</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>12714</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65">
         <v>34.8605121360916</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>22.1975438980907</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P65">
         <v>12.6629682380009</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:16">
+      <c r="A66">
         <v>2013</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>136072</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>69728</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>66344</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>73111.4856</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>62960.5144</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>12.08</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>7.16</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>4.92</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>136072</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>22329</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>100582</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>13161</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66">
         <v>35.2846433755543</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66">
         <v>22.19979718041</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P66">
         <v>13.0848461951443</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:16">
+      <c r="A67">
         <v>2014</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>136782</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>70079</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>66703</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>74915.50139999999</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>61866.4986</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>12.37</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>7.16</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>5.21</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>136782</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>22558</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>100469</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67">
         <v>13755</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N67">
         <v>36.2</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67">
         <v>22.45269685</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P67">
         <v>13.69079019</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:16">
+      <c r="A68">
         <v>2015</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>137462</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>70414</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>67048</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>77116.182</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>60345.818</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>12.07</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>7.11</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>4.96</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>137462</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>22715</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>100361</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68">
         <v>14386</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68">
         <v>36.9675471547713</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68">
         <v>22.6332938093483</v>
       </c>
-      <c r="P68" t="n">
+      <c r="P68">
         <v>14.334253345423</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:16">
+      <c r="A69">
         <v>2016</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>138271</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>70815</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>67456</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>79298.4185</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>58972.5815</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>12.95</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>7.09</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>5.86</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>138271</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>23008</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>100260</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69">
         <v>15003</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69">
         <v>37.9</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O69">
         <v>22.9</v>
       </c>
-      <c r="P69" t="n">
+      <c r="P69">
         <v>15</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:16">
+      <c r="A70">
         <v>2017</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>139008</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>71137</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>67871</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>81347.4816</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>57660.5184</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>12.43</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>7.11</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>5.32</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>139008</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>23348</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>99829</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70">
         <v>15831</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70">
         <v>39.2461108495527</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70">
         <v>23.3879934688317</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P70">
         <v>15.858117380721</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:16">
+      <c r="A71">
         <v>2018</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>139538</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>71351</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>68187</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>83136.7404</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>56401.2596</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>10.94</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>7.13</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>3.81</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>139538</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>23523</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>99357</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71">
         <v>16658</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71">
         <v>40.4410358605836</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O71">
         <v>23.6752317400888</v>
       </c>
-      <c r="P71" t="n">
+      <c r="P71">
         <v>16.7658041204948</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:16">
+      <c r="A72">
         <v>2019</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>140005</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>71527</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>68478</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>84843</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>55162</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>10.48</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>7.14</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>3.34</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>140005</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>25061</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>97341</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72">
         <v>17603</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72">
         <v>43.82942439</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72">
         <v>25.74557483</v>
       </c>
-      <c r="P72" t="n">
+      <c r="P72">
         <v>18.08384956</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>